--- a/biology/Zoologie/Eugene_Kornel_Balon/Eugene_Kornel_Balon.xlsx
+++ b/biology/Zoologie/Eugene_Kornel_Balon/Eugene_Kornel_Balon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugene Kornel Balon (né le 1er août 1930 à Orlová, Silésie et mort le 4 septembre 2013 à Guelph, Ontario) est un zoologiste et ichtyologiste canadien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugene Balon est né à Orlová en Silésie. Il est diplômé de Université Charles de Prague. Dans les années 1953-1967, il a travaillé aux laboratoires de l'Académie slovaque des sciences à Bratislava, où il a étudié la faune endémique du fleuve Danube. Dans les années 1967-1971, il était en Zambie comme un expert des Nations unies. Depuis 1976, Balon était professeur d'université au Canada, à l'Université de Guelph. Marié à Christine Flegler, il a un fils, Janusz S. Balon.
 </t>
@@ -542,7 +556,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En son nom ont été nommées deux espèces de poissons : 
 Gymnocephalus baloni Holčík &amp; Hensel, 1974 - poisson de la famille des Percidae ;
@@ -574,7 +590,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Balon, EK, 1979. The theory of saltation and its application in the ontogeny of fishes: steps and thresholds. Environmental Biology of Fishes, 1979, Volume 4, Number 2, Pages 97-101. Online
 Balon, EK, 2001. Saltatory Ontogeny and the Life-History Model: Neglected Processes and Patterns of Evolution. Journal of Bioeconomics, 2001, Volume 3, Number 1, Pages 1-26. Online
